--- a/biology/Médecine/Émile_Beaugrand/Émile_Beaugrand.xlsx
+++ b/biology/Médecine/Émile_Beaugrand/Émile_Beaugrand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Beaugrand</t>
+          <t>Émile_Beaugrand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Émile Beaugrand est un médecin français né à Paris le 30 septembre 1809[1], où il est mort le 21 août 1875[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Émile Beaugrand est un médecin français né à Paris le 30 septembre 1809, où il est mort le 21 août 1875.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Beaugrand</t>
+          <t>Émile_Beaugrand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaugrand fait ses études à Paris et devient interne des hôpitaux en 1832, puis docteur en 1837. En 1859, il est nommé bibliothécaire-adjoint à la faculté de médecine de Paris. On lui doit un nombre important d'ouvrages de médecine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Beaugrand</t>
+          <t>Émile_Beaugrand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Leçons de clinique chirurgicale : Observations et réflexions, 1835 (avec Pierre Nicolas Gerdy).
 Remarques et propositions sur divers points de médecine et de chirurgie, 1837.
